--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 36,55</t>
+          <t>16,27; 35,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 41,0</t>
+          <t>14,9; 40,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,73; 33,87</t>
+          <t>17,59; 34,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,1</t>
+          <t>7,41; 12,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,62</t>
+          <t>6,87; 11,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 11,14</t>
+          <t>7,81; 11,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,99</t>
+          <t>2,99; 9,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,99</t>
+          <t>5,23; 12,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 9,25</t>
+          <t>4,59; 9,53</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 12,12</t>
+          <t>8,11; 12,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,19</t>
+          <t>8,26; 12,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,62; 11,52</t>
+          <t>8,61; 11,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,19%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,19; 41,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>16,46; 35,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>17,3; 33,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 35,78</t>
+          <t>6,65; 11,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,9; 40,47</t>
+          <t>7,04; 11,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 34,29</t>
+          <t>7,44; 10,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,4</t>
+          <t>5,01; 12,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,25</t>
+          <t>3,14; 9,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 11,19</t>
+          <t>4,75; 9,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>9,7%</t>
         </is>
       </c>
     </row>
@@ -729,81 +729,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,83</t>
+          <t>7,77; 12,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,58</t>
+          <t>7,69; 11,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,53</t>
+          <t>8,41; 11,23</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>10,05%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 12,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,26; 12,53</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,61; 11,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
